--- a/Inputs_Data_std/Data_std_inputs.xlsx
+++ b/Inputs_Data_std/Data_std_inputs.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="159">
   <si>
     <t>AL_active</t>
   </si>
@@ -502,6 +502,15 @@
   </si>
   <si>
     <t>BA7</t>
+  </si>
+  <si>
+    <t>bfactor_current</t>
+  </si>
+  <si>
+    <t>EEC_pct.entrants</t>
+  </si>
+  <si>
+    <t>cp</t>
   </si>
 </sst>
 </file>
@@ -752,12 +761,12 @@
     <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -2131,7 +2140,7 @@
       <c r="C41" s="34" t="s">
         <v>135</v>
       </c>
-      <c r="D41" s="38" t="s">
+      <c r="D41" s="40" t="s">
         <v>139</v>
       </c>
       <c r="E41" s="36" t="s">
@@ -2148,7 +2157,7 @@
       <c r="C42" s="34" t="s">
         <v>135</v>
       </c>
-      <c r="D42" s="38"/>
+      <c r="D42" s="40"/>
       <c r="E42" s="36" t="s">
         <v>134</v>
       </c>
@@ -2163,7 +2172,7 @@
       <c r="C43" s="34" t="s">
         <v>135</v>
       </c>
-      <c r="D43" s="38"/>
+      <c r="D43" s="40"/>
       <c r="E43" s="36" t="s">
         <v>134</v>
       </c>
@@ -2178,7 +2187,7 @@
       <c r="C44" s="34" t="s">
         <v>135</v>
       </c>
-      <c r="D44" s="38"/>
+      <c r="D44" s="40"/>
       <c r="E44" s="36" t="s">
         <v>134</v>
       </c>
@@ -2193,7 +2202,7 @@
       <c r="C45" s="34" t="s">
         <v>135</v>
       </c>
-      <c r="D45" s="38"/>
+      <c r="D45" s="40"/>
       <c r="E45" s="36" t="s">
         <v>134</v>
       </c>
@@ -2208,7 +2217,7 @@
       <c r="C46" s="34" t="s">
         <v>135</v>
       </c>
-      <c r="D46" s="38"/>
+      <c r="D46" s="40"/>
       <c r="E46" s="36" t="s">
         <v>134</v>
       </c>
@@ -2223,7 +2232,7 @@
       <c r="C47" s="34" t="s">
         <v>135</v>
       </c>
-      <c r="D47" s="38"/>
+      <c r="D47" s="40"/>
       <c r="E47" s="36" t="s">
         <v>134</v>
       </c>
@@ -2238,7 +2247,7 @@
       <c r="C48" s="34" t="s">
         <v>135</v>
       </c>
-      <c r="D48" s="38"/>
+      <c r="D48" s="40"/>
       <c r="E48" s="36" t="s">
         <v>134</v>
       </c>
@@ -2253,7 +2262,7 @@
       <c r="C49" s="34" t="s">
         <v>135</v>
       </c>
-      <c r="D49" s="38"/>
+      <c r="D49" s="40"/>
       <c r="E49" s="36" t="s">
         <v>134</v>
       </c>
@@ -2268,7 +2277,7 @@
       <c r="C50" s="34" t="s">
         <v>135</v>
       </c>
-      <c r="D50" s="38"/>
+      <c r="D50" s="40"/>
       <c r="E50" s="36" t="s">
         <v>134</v>
       </c>
@@ -2919,7 +2928,7 @@
       <c r="C31" s="12">
         <v>0.5</v>
       </c>
-      <c r="D31" s="39"/>
+      <c r="D31" s="38"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
@@ -3221,8 +3230,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:BA53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
-      <selection activeCell="AO16" sqref="AO16"/>
+    <sheetView tabSelected="1" topLeftCell="AP1" workbookViewId="0">
+      <selection activeCell="Y17" sqref="Y17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3246,21 +3255,21 @@
     <col min="30" max="30" width="11.42578125" style="6" customWidth="1"/>
     <col min="31" max="33" width="9.140625" style="6"/>
     <col min="34" max="34" width="16.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="13.140625" style="6" customWidth="1"/>
+    <col min="35" max="35" width="18" style="6" customWidth="1"/>
     <col min="36" max="36" width="18.42578125" style="6" customWidth="1"/>
     <col min="37" max="37" width="12.5703125" style="6" customWidth="1"/>
     <col min="38" max="38" width="20.7109375" style="6" customWidth="1"/>
     <col min="39" max="39" width="15.140625" style="6" customWidth="1"/>
     <col min="40" max="40" width="23.85546875" style="6" customWidth="1"/>
     <col min="41" max="41" width="21.140625" style="6" customWidth="1"/>
-    <col min="42" max="43" width="9.140625" style="6"/>
+    <col min="42" max="42" width="9.140625" style="6"/>
+    <col min="43" max="43" width="16.28515625" style="6" customWidth="1"/>
     <col min="44" max="44" width="11.140625" style="6" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="16.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="11.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="30.28515625" style="6" customWidth="1"/>
     <col min="47" max="47" width="10.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="14.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="14.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="13.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="18.140625" style="6" customWidth="1"/>
+    <col min="49" max="50" width="17.42578125" style="6" customWidth="1"/>
     <col min="51" max="51" width="14.140625" style="6" bestFit="1" customWidth="1"/>
     <col min="52" max="52" width="18.5703125" customWidth="1"/>
     <col min="53" max="53" width="22.5703125" customWidth="1"/>
@@ -3542,7 +3551,7 @@
         <v>13</v>
       </c>
       <c r="AI6" s="27" t="s">
-        <v>51</v>
+        <v>156</v>
       </c>
       <c r="AJ6" s="27" t="s">
         <v>53</v>
@@ -3587,7 +3596,7 @@
         <v>95</v>
       </c>
       <c r="AX6" s="28" t="s">
-        <v>96</v>
+        <v>157</v>
       </c>
       <c r="AY6" s="28" t="s">
         <v>69</v>
@@ -3671,7 +3680,7 @@
         <v>57390069000</v>
       </c>
       <c r="Y7" s="18">
-        <v>49994700500</v>
+        <v>0.5</v>
       </c>
       <c r="Z7" s="18">
         <v>0.57299999999999995</v>
@@ -3734,7 +3743,7 @@
         <v>93</v>
       </c>
       <c r="AT7" s="16" t="s">
-        <v>94</v>
+        <v>158</v>
       </c>
       <c r="AU7" s="16">
         <v>24</v>
@@ -3769,124 +3778,124 @@
     <row r="10" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A10" s="14"/>
       <c r="B10" s="14"/>
-      <c r="AA10" s="40"/>
-      <c r="AB10" s="40"/>
-      <c r="AC10" s="40"/>
-      <c r="AD10" s="40"/>
-      <c r="AE10" s="40"/>
-      <c r="AF10" s="40"/>
-      <c r="AG10" s="40"/>
+      <c r="AA10" s="39"/>
+      <c r="AB10" s="39"/>
+      <c r="AC10" s="39"/>
+      <c r="AD10" s="39"/>
+      <c r="AE10" s="39"/>
+      <c r="AF10" s="39"/>
+      <c r="AG10" s="39"/>
     </row>
     <row r="11" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A11" s="14"/>
       <c r="B11" s="14"/>
-      <c r="AA11" s="40"/>
-      <c r="AB11" s="40"/>
-      <c r="AC11" s="40"/>
-      <c r="AD11" s="40"/>
-      <c r="AE11" s="40"/>
-      <c r="AF11" s="40"/>
-      <c r="AG11" s="40"/>
+      <c r="AA11" s="39"/>
+      <c r="AB11" s="39"/>
+      <c r="AC11" s="39"/>
+      <c r="AD11" s="39"/>
+      <c r="AE11" s="39"/>
+      <c r="AF11" s="39"/>
+      <c r="AG11" s="39"/>
     </row>
     <row r="12" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A12" s="14"/>
       <c r="B12" s="14"/>
-      <c r="AA12" s="40"/>
-      <c r="AB12" s="40"/>
-      <c r="AC12" s="40"/>
-      <c r="AD12" s="40"/>
-      <c r="AE12" s="40"/>
-      <c r="AF12" s="40"/>
-      <c r="AG12" s="40"/>
+      <c r="AA12" s="39"/>
+      <c r="AB12" s="39"/>
+      <c r="AC12" s="39"/>
+      <c r="AD12" s="39"/>
+      <c r="AE12" s="39"/>
+      <c r="AF12" s="39"/>
+      <c r="AG12" s="39"/>
     </row>
     <row r="13" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A13" s="14"/>
       <c r="B13" s="14"/>
-      <c r="AA13" s="40"/>
+      <c r="AA13" s="39"/>
       <c r="AB13" s="5"/>
       <c r="AC13" s="5"/>
       <c r="AD13" s="5"/>
       <c r="AE13" s="5"/>
-      <c r="AF13" s="40"/>
-      <c r="AG13" s="40"/>
+      <c r="AF13" s="39"/>
+      <c r="AG13" s="39"/>
     </row>
     <row r="14" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A14" s="14"/>
       <c r="B14" s="14"/>
       <c r="C14" s="21"/>
-      <c r="AA14" s="40"/>
+      <c r="AA14" s="39"/>
       <c r="AB14" s="5"/>
       <c r="AC14" s="5"/>
       <c r="AD14" s="5"/>
       <c r="AE14" s="5"/>
-      <c r="AF14" s="40"/>
-      <c r="AG14" s="40"/>
+      <c r="AF14" s="39"/>
+      <c r="AG14" s="39"/>
     </row>
     <row r="15" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A15" s="15"/>
       <c r="B15" s="15"/>
-      <c r="AA15" s="40"/>
-      <c r="AB15" s="40"/>
-      <c r="AC15" s="40"/>
-      <c r="AD15" s="40"/>
-      <c r="AE15" s="40"/>
-      <c r="AF15" s="40"/>
-      <c r="AG15" s="40"/>
+      <c r="AA15" s="39"/>
+      <c r="AB15" s="39"/>
+      <c r="AC15" s="39"/>
+      <c r="AD15" s="39"/>
+      <c r="AE15" s="39"/>
+      <c r="AF15" s="39"/>
+      <c r="AG15" s="39"/>
     </row>
     <row r="16" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A16" s="15"/>
       <c r="B16" s="15"/>
-      <c r="AA16" s="40"/>
-      <c r="AB16" s="40"/>
-      <c r="AC16" s="40"/>
-      <c r="AD16" s="40"/>
-      <c r="AE16" s="40"/>
-      <c r="AF16" s="40"/>
-      <c r="AG16" s="40"/>
+      <c r="AA16" s="39"/>
+      <c r="AB16" s="39"/>
+      <c r="AC16" s="39"/>
+      <c r="AD16" s="39"/>
+      <c r="AE16" s="39"/>
+      <c r="AF16" s="39"/>
+      <c r="AG16" s="39"/>
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" s="15"/>
       <c r="B17" s="15"/>
-      <c r="AA17" s="40"/>
-      <c r="AB17" s="40"/>
-      <c r="AC17" s="40"/>
-      <c r="AD17" s="40"/>
-      <c r="AE17" s="40"/>
-      <c r="AF17" s="40"/>
-      <c r="AG17" s="40"/>
+      <c r="AA17" s="39"/>
+      <c r="AB17" s="39"/>
+      <c r="AC17" s="39"/>
+      <c r="AD17" s="39"/>
+      <c r="AE17" s="39"/>
+      <c r="AF17" s="39"/>
+      <c r="AG17" s="39"/>
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" s="15"/>
       <c r="B18" s="15"/>
-      <c r="AA18" s="40"/>
-      <c r="AB18" s="40"/>
-      <c r="AC18" s="40"/>
-      <c r="AD18" s="40"/>
-      <c r="AE18" s="40"/>
-      <c r="AF18" s="40"/>
-      <c r="AG18" s="40"/>
+      <c r="AA18" s="39"/>
+      <c r="AB18" s="39"/>
+      <c r="AC18" s="39"/>
+      <c r="AD18" s="39"/>
+      <c r="AE18" s="39"/>
+      <c r="AF18" s="39"/>
+      <c r="AG18" s="39"/>
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" s="15"/>
       <c r="B19" s="15"/>
-      <c r="AA19" s="40"/>
-      <c r="AB19" s="40"/>
-      <c r="AC19" s="40"/>
-      <c r="AD19" s="40"/>
-      <c r="AE19" s="40"/>
-      <c r="AF19" s="40"/>
-      <c r="AG19" s="40"/>
+      <c r="AA19" s="39"/>
+      <c r="AB19" s="39"/>
+      <c r="AC19" s="39"/>
+      <c r="AD19" s="39"/>
+      <c r="AE19" s="39"/>
+      <c r="AF19" s="39"/>
+      <c r="AG19" s="39"/>
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" s="15"/>
       <c r="B20" s="15"/>
-      <c r="AA20" s="40"/>
-      <c r="AB20" s="40"/>
-      <c r="AC20" s="40"/>
-      <c r="AD20" s="40"/>
-      <c r="AE20" s="40"/>
-      <c r="AF20" s="40"/>
-      <c r="AG20" s="40"/>
+      <c r="AA20" s="39"/>
+      <c r="AB20" s="39"/>
+      <c r="AC20" s="39"/>
+      <c r="AD20" s="39"/>
+      <c r="AE20" s="39"/>
+      <c r="AF20" s="39"/>
+      <c r="AG20" s="39"/>
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" s="15"/>

--- a/Inputs_Data_std/Data_std_inputs.xlsx
+++ b/Inputs_Data_std/Data_std_inputs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="32" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="160">
   <si>
     <t>AL_active</t>
   </si>
@@ -511,6 +511,9 @@
   </si>
   <si>
     <t>cp</t>
+  </si>
+  <si>
+    <t>6March 31 201</t>
   </si>
 </sst>
 </file>
@@ -3230,8 +3233,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:BA53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AP1" workbookViewId="0">
-      <selection activeCell="Y17" sqref="Y17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3245,16 +3248,18 @@
     <col min="12" max="12" width="9.140625" style="6"/>
     <col min="13" max="13" width="9.7109375" style="6" customWidth="1"/>
     <col min="14" max="14" width="14" style="6" customWidth="1"/>
-    <col min="15" max="18" width="9.140625" style="6"/>
+    <col min="15" max="15" width="9.140625" style="6"/>
+    <col min="16" max="16" width="14.28515625" style="6" customWidth="1"/>
+    <col min="17" max="17" width="15.42578125" style="6" customWidth="1"/>
+    <col min="18" max="18" width="20.28515625" style="6" customWidth="1"/>
     <col min="19" max="19" width="13.140625" style="6" bestFit="1" customWidth="1"/>
     <col min="20" max="22" width="12" style="6" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="9.140625" style="6"/>
     <col min="24" max="25" width="12" style="6" bestFit="1" customWidth="1"/>
     <col min="26" max="28" width="9.140625" style="6"/>
     <col min="29" max="29" width="11.7109375" style="6" customWidth="1"/>
-    <col min="30" max="30" width="11.42578125" style="6" customWidth="1"/>
-    <col min="31" max="33" width="9.140625" style="6"/>
-    <col min="34" max="34" width="16.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12.5703125" style="6" customWidth="1"/>
+    <col min="31" max="34" width="19" style="6" customWidth="1"/>
     <col min="35" max="35" width="18" style="6" customWidth="1"/>
     <col min="36" max="36" width="18.42578125" style="6" customWidth="1"/>
     <col min="37" max="37" width="12.5703125" style="6" customWidth="1"/>
@@ -3265,7 +3270,7 @@
     <col min="42" max="42" width="9.140625" style="6"/>
     <col min="43" max="43" width="16.28515625" style="6" customWidth="1"/>
     <col min="44" max="44" width="11.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="16.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="18.5703125" style="6" customWidth="1"/>
     <col min="46" max="46" width="30.28515625" style="6" customWidth="1"/>
     <col min="47" max="47" width="10.28515625" style="6" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="18.140625" style="6" customWidth="1"/>
@@ -3800,6 +3805,9 @@
     <row r="12" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A12" s="14"/>
       <c r="B12" s="14"/>
+      <c r="H12" s="6" t="s">
+        <v>159</v>
+      </c>
       <c r="AA12" s="39"/>
       <c r="AB12" s="39"/>
       <c r="AC12" s="39"/>
